--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,973 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316" count="316">
+  <x:si>
+    <x:t>body_html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>created_at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>handle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>images</x:t>
+  </x:si>
+  <x:si>
+    <x:t>options</x:t>
+  </x:si>
+  <x:si>
+    <x:t>product_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>published_at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tags</x:t>
+  </x:si>
+  <x:si>
+    <x:t>title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>updated_at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>variants</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vendor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Highlands cannabis softgels are made with CO2 extract from a greenhouse-grown indica-dominant hybrid strain with Afghan ancestry, and formulated with non-GMO liquid coconut oil, gelatin and glycerine. They have very mild THC potency and are available in 15- and 60-capsule bottles. 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-09-13T15:38:21-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>highlands-capsules-2-5mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cannabis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-02T10:50:21-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,effect--Happy,effect--Passionate,effect--Relaxed,effect--Sleepy,gtin--00688083001833,gtin--00688083001840,language--en,plant_type--Indica Dominant,subcategory--Capsules,subsubcategory--Softgels,terpenes--Alpha-Pinene,terpenes--Alpha-Santalene,terpenes--Beta-Caryophyllene,terpenes--Myrcene,terpenes--Selinadienes,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Highlands Softgels 2.5 mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-30T02:34:36-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tweed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gel caps from Aurora are made from oils that are extracted from a sativa strain. Supercritical CO2 extraction, capturing both cannabinoids and terpenes resulting in a full spectrum extract product. Diluted in coconut derived MCT oil and colour coded for your convenience. (2.5-6.5 mg THC, 0.1-1 mg CBD)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-03-22T13:17:38-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sativa-liquid-gels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-02T15:06:46-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,gtin--00629108111144,gtin--00629108510145,language--en,plant_type--Sativa Dominant,subcategory--Capsules,subsubcategory--Softgels,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sativa Liquid Gels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-30T02:35:07-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aurora</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aurora Indica Liquid Gels contain a very mild 3.5-9 mg of THC per capsule. They’re made in Quebec from oils that are extracted from an indica strain and come in a bottle of 30 capsules.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-03-22T13:17:43-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>indica-liquid-gels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-07-21T18:34:09-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,gtin--00629108110147,gtin--00629108509149,language--en,plant_type--Indica Dominant,subcategory--Capsules,subsubcategory--Softgels,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indica Liquid Gels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-30T02:35:08-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grown in Niagara, Ont., Gems 5:0 cannabis softgels are made with ethanol-extracted oil from greenhouse-grown, blended hybrid strains. Each gelatin softgel has 4-6 mg of THC, no CBD and was formulated with MCT oil. They have mild THC potency and are available in 15-capsule bottles.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-07-26T13:00:19-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gems-5-0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-08-01T13:02:00-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,gtin--00628242243094,language--en,plant_type--Hybrid,subcategory--Capsules,subsubcategory--Softgels,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gems 5:0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-30T03:00:15-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redecan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sunset softgels are made with CO2 extract from a hybrid greenhouse-grown indica-dominant strain with very mild THC potency, and are formulated with non-GMO liquid coconut oil, gelatin and glycerine. It’s available in 15- and 60-capsule bottles.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-09-13T15:38:02-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sunset-capsules-2-5mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-02T10:36:03-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,effect--Happy,effect--Relaxed,effect--Sleepy,effect--Uplifted,gtin--00688083000980,gtin--00688083000997,language--en,plant_type--Indica Dominant,subcategory--Capsules,subsubcategory--Softgels,terpenes--Beta-Caryophyllene,terpenes--Beta-Ylangene,terpenes--Humulene,terpenes--Linalool,terpenes--Selinadienes,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sunset Softgels 2.5 mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-30T00:34:46-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LBS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Solei Renew softgels contain a very mild dose of 1 mg of CBN and 2.5 mg of THC. The terpenes have been removed to provide an odor- and taste-free cannabis oil. Each soft gel contains cannabis extract from our hybrid greenhouse which is paired with MCT oil.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-09-12T18:02:23-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>renew-cbn-capsules</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-11-14T13:51:23-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,effect--Relaxed,effect--Sleepy,gtin--00694144003418,language--en,plant_type--Blend,subcategory--Capsules,subsubcategory--Softgels,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renew CBN Softgels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-30T02:36:12-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Solei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Solei Free Softgels contain 5.5 mg of CBD, providing a discrete, tasteless and smoke free way to consume CBD. Each soft gel contains cannabis extract from our hybrid greenhouse which is paired with MCT oil. 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-09-23T15:48:48-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>free-softgels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-10-15T12:50:32-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,effect--Focused,effect--Happy,gtin--00694144003395,language--en,plant_type--Indica Dominant,subcategory--Capsules,subsubcategory--Softgels,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Free Softgels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Solei Balance microdose softgels contain 2 - 3mg of CBD and 2 - 3mg of THC, free of any cannabis odor or taste. Each softgel contains cannabis oil from our hybrid greenhouse which is paired with MCT oil. All oil products sold at OCS.ca are for ingestion only. DO NOT smoke or vape these oils. Use as directed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-09-25T14:01:36-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>balance-softgels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-10-21T18:25:39-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,gtin--00694144003371,language--en,plant_type--Blend,subcategory--Capsules,subsubcategory--Softgels,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Balance Softgels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-30T00:42:45-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bakerstreet cannabis softgels are made with CO2 extract from a greenhouse-grown indica-dominant strain with very mild THC potency, and formulated with non-GMO liquid coconut oil, gelatin and glycerine. It’s available in 15- and 60-capsule bottles.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-09-13T15:38:09-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bakerstreet-capsules-2-5mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-02T10:42:26-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,effect--Happy,effect--Relaxed,effect--Sleepy,effect--Uplifted,gtin--00688083001215,gtin--00688083001222,language--en,plant_type--Indica Dominant,subcategory--Capsules,subsubcategory--Softgels,terpenes--Cymene,terpenes--Eudesmols,terpenes--Myrcene,terpenes--Selinadienes,terpenes--Terpinolene,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bakerstreet Softgels 2.5 mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-30T00:34:48-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gel caps from Aurora are made from oils that are extracted from a hybrid strain. Supercritical CO2 extraction, capturing both cannabinoids and terpenes resulting in a full spectrum extract product. Diluted in coconut derived MCT oil and colour coded for your convenience. (0.1-2 mg THC, 7-10 mg CBD)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-03-22T13:17:33-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cbd-liquid-gels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-02T15:06:30-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,gtin--00629108109141,gtin--00629108508142,language--en,plant_type--Hybrid,subcategory--Capsules,subsubcategory--Softgels,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CBD Liquid Gels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Argyle softgels are made with CO2 extract from a greenhouse-grown indica-dominant strain with very mild THC potency, and are formulated with non-GMO liquid coconut oil, gelatin and glycerine. It’s similar to Nordle and available in 15- and 60-capsule bottles.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-09-13T15:38:05-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>argyle-capsules-2-5mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-02T10:37:51-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,effect--Happy,effect--Relaxed,effect--Sleepy,effect--Uplifted,gtin--00688083001116,gtin--00688083001123,language--en,plant_type--Indica Dominant,subcategory--Capsules,subsubcategory--Softgels,terpenes--Beta-Caryophyllene,terpenes--Eudesmols,terpenes--Guaiol,terpenes--Myrcene,terpenes--Selinadienes,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Argyle Softgels 2.5 mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-30T02:34:34-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Penelope cannabis softgels are made with CO2 extract from a hybrid strain (grown in a hybrid greenhouse) and formulated with non-GMO liquid coconut oil, gelatin and glycerine. They have very mild THC potency and are available in 15- and 60-capsule bottles.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-09-13T15:38:12-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>penelope-capsules-2-5mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-02T10:44:50-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,effect--Creative,effect--Energetic,effect--Focused,effect--Happy,effect--Uplifted,gtin--00688083001703,gtin--00688083001710,language--en,plant_type--Hybrid,subcategory--Capsules,subsubcategory--Softgels,terpenes--Alpha-Pinene,terpenes--Eudesmols,terpenes--Guaiol,terpenes--Myrcene,terpenes--Selinadienes,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Penelope Softgels 2.5 mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Greenhouse-grown Houndstooth from Tweed is a sativa-dominant strain with mild THC potency. Its buds have a purple hue and a complex aroma created by a terpene profile that includes myrcene (earthy), caryophyllene (clove-like), pinene (piney) and limonene (citrusy). It’s available in various dried flower sizes, softgels and pre-rolls.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-09-13T15:38:15-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>houndstooth-capsules-2-5mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-02T10:49:39-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,effect--Creative,effect--Energetic,effect--Euphoric,effect--Passionate,effect--Uplifted,gtin--00688083001574,gtin--00688083001581,language--en,plant_type--Sativa Dominant,subcategory--Capsules,subsubcategory--Softgels,terpenes--Alpha-Pinene,terpenes--Alpha-Santalene,terpenes--Beta-Caryophyllene,terpenes--Myrcene,terpenes--Selinadienes,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houndstooth Softgels 2.5 mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-29T22:34:48-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THC Cannabis Softgels from Vertical have up to 8mg of THC and less than 1mg of CBD per capsule. The cannabis in these soft gels is extracted from high-quality hybrid cannabis strains grown in a Canadian GMP-certified facility using CO2 extraction, then combined with MCT oil. In comparison to inhaled cannabis, ingested cannabis oil is processed differently in the body. This results in a gradual onset of effects that are longer-lasting. Onset of effects when ingested is 0.5–3 hours after ingestion.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-10-24T16:07:06-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thc-softgel-capsules</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-11-14T14:56:26-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,gtin--00628250744613,gtin--00628250744620,language--en,plant_type--Hybrid,subcategory--Capsules,subsubcategory--Softgels,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THC Softgels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-16T18:19:15-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vertical</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Highlands cannabis softgels are made with CO2 extract from a greenhouse-grown indica-dominant hybrid strain with Afghan ancestry, and are formulated with non-GMO liquid coconut oil, gelatin and glycerine. They have mild THC potency, and they’re available in 15- and 60-capsule bottles.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-09-13T15:25:39-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>highlands-capsules-10mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-02T10:22:07-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,effect--Happy,effect--Passionate,effect--Relaxed,effect--Sleepy,gtin--00688083001819,gtin--00688083001826,language--en,plant_type--Indica Dominant,subcategory--Capsules,subsubcategory--Softgels,terpenes--Alpha-Pinene,terpenes--Alpha-Santalene,terpenes--Beta-Caryophyllene,terpenes--Myrcene,terpenes--Selinadienes,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Highlands Softgels 10 mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-30T02:33:40-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lemon Skunk is a greenhouse-grown hybrid strain with very mild THC potency. The plant’s buds are light green with thick orange hairs, and its terpene profile is rich in terpinolene and caryophyllene, which give it a black pepper scent and hints of citrus. Lemon Skunk is available in 10 mg and 2.5 mg softgels, as well as four dried flower weights.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-09-13T15:40:03-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lemon-skunk-capsules-2-5mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-02T10:52:24-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,gtin--00688083000249,gtin--00688083000256,language--en,plant_type--Hybrid,subcategory--Capsules,subsubcategory--Softgels,terpenes--Bergamotene,terpenes--Beta-Caryophyllene,terpenes--Beta-Pinene,terpenes--Cymene,terpenes--Terpinolene,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lemon Skunk Softgels 2.5 mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-30T02:34:43-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DNA Genetics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>High-quality indica-dominant cannabis strains grown in a Canadian GMP-certified facility are CO2-extracted and combined with MCT oil to create Vertical’s Balanced Softgels. Each capsule contains 6mg of THC and 8mg of CBD. In comparison to inhaled cannabis, ingested cannabis oil is processed differently in the body. This results in a gradual onset of effects that are longer-lasting. Onset of effects when ingested is 0.5–3 hours after ingestion. 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-10-24T16:07:09-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>balanced-softgel-capsules</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-11-14T14:56:40-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,gtin--00628250744651,gtin--00628250744668,language--en,plant_type--Indica Dominant,subcategory--Capsules,subsubcategory--Softgels,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Balanced Softgels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-03T18:17:00-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sunset softgels are made with CO2 extract from a hybrid greenhouse-grown indica-dominant strain with mild THC potency, and formulated with non-GMO liquid coconut oil, gelatin and glycerine. They are available in 15- and 60-capsule bottles.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-09-13T15:24:30-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sunset-capsules-10mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-02T10:16:13-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,effect--Happy,effect--Relaxed,effect--Sleepy,effect--Uplifted,gtin--00688083000966,gtin--00688083000973,language--en,plant_type--Indica Dominant,subcategory--Capsules,subsubcategory--Softgels,terpenes--Beta-Caryophyllene,terpenes--Beta-Ylangene,terpenes--Humulene,terpenes--Linalool,terpenes--Selinadienes,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sunset Softgels 10 mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-30T02:33:28-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tweed CBD Softgels are made with CO2-extracted oil which contains 20 mg of CBD and little-to-no THC. Each bottle contains 15 CBD-dominant capsules which are made using non-GMO, coconut-derived MCT oil. The Licensed Producer recommends beginning with a single Tweed CBD Softgel (20mg) to gauge effects. Effects may take up to 1-2 hours and last for up to 6-10 hours or more.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-09-09T15:53:10-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cbd-softgels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-10-21T17:08:55-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,gtin--00688083001376,language--en,plant_type--Indica Dominant,subcategory--Capsules,subsubcategory--Softgels,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CBD Softgels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redecan 5:5 Softgels from the Niagara region in Ontario are made from oils that are ethanol-extracted from a blend of Redecan’s greenhouse-grown cannabis. Each of the 30 Softgels per bottle contains 5.5 mg of THC and 5.5 mg of CBD, which is considered a very mild dose.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-01-25T13:14:44-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>capsules-thc-cbd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-10-21T16:58:39-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,effect--Energetic,effect--Euphoric,effect--Happy,effect--Uplifted,gtin--00628242243384,language--en,plant_type--Blend,subcategory--Capsules,subsubcategory--Softgels,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gems 5:5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-30T02:35:28-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REDECAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>These ingestible capsules filled with CBD oil have little a potency potential of &lt;strong&gt;2 mg THC and 7-10 mg CBD per capsule&lt;/strong&gt;. Supercritical CO2 extraction, capturing both cannabinoids and terpenes resulting in a full spectrum extract product. Diluted in coconut derived MCT oil.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-02-11T16:15:35-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cbd-capsules-2-mg-thc-7-10-mg-cbd-per-cap</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-18T09:10:25-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,effect--Euphoric,effect--Focused,effect--Happy,effect--Relaxed,effect--Uplifted,gtin--00629108501143,language--en,plant_type--Hybrid,subcategory--Capsules,subsubcategory--Softgels,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CBD Capsules</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-29T20:36:06-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>These ingestible indica capsules have mild THC potency potential of &lt;strong&gt;7-10 mg per capsule&lt;/strong&gt;. Supercritical CO2 extraction, capturing both cannabinoids and terpenes resulting in a full spectrum extract product. Diluted in coconut derived MCT oil.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-02-11T16:15:51-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>indica-capsules-7-10-mg-thc-per-cap</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-02T15:07:01-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,effect--Euphoric,effect--Focused,effect--Happy,effect--Relaxed,effect--Uplifted,gtin--00629108506148,language--en,plant_type--Indica Dominant,subcategory--Capsules,subsubcategory--Softgels,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indica Capsules</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-30T02:41:10-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>These ingestible sativa capsules have mild THC potency of &lt;strong&gt;7-10 mg per capsule&lt;/strong&gt;. Supercritical CO2 extraction, capturing both cannabinoids and terpenes resulting in a full spectrum extract product. Diluted in coconut derived MCT oil.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sativa-capsules-7-10-mg-thc-per-cap</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-02T15:07:06-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,effect--Creative,effect--Euphoric,effect--Relaxed,effect--Sleepy,effect--Tingly,gtin--00629108507145,language--en,plant_type--Sativa Dominant,subcategory--Capsules,subsubcategory--Softgels,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sativa Capsules</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Harmonic from AltaVie by MedReleaf is a sativa-dominant strain with very mild THC potency. Its green buds are grown indoors, hand-trimmed and hang-dried indoors, and the myrcene in its terpene mix is responsible for the earthiness in its taste and aroma. It’s available in 30 softgel bottles, as well as dried flower varieties.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-06T14:25:47-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>harmonic-softgels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-09T16:25:19-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,effect--Energetic,effect--Focused,effect--Happy,gtin--00628582000074,language--en,plant_type--Sativa Dominant,subcategory--Capsules,subsubcategory--Softgels,terpenes--Alpha-Pinene,terpenes--Beta-Pinene,terpenes--Limonene,terpenes--Myrcene,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Harmonic Softgels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-30T00:35:13-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AltaVie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The oil in Delahaze Softgels is extracted using CO2 extraction technology. The indoor-grown sativa strain used in the oil has a terpinolene, myrcene, beta-pinene, and alpha-pinene terpene mix, and it’s combined with sunflower oil. The capsules have a potency potential of 4-6 mg/ml THC per capsule, and 0.5 mg of CBD per capsule.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-27T15:10:17-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>delahaze-softgels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-07-29T09:37:09-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,gtin--00628582000999,language--en,plant_type--Sativa Dominant,subcategory--Capsules,subsubcategory--Softgels,terpenes--Alpha-Pinene,terpenes--Beta-Pinene,terpenes--Myrcene,terpenes--Terpinolene,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delahaze Softgels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-29T22:36:27-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>San Rafael '71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The oil in Pink Kush Softgels is extracted using CO2-extraction technology. The indoor-grown indica strain used in the oil has a myrcene, beta-caryophyllene, and limonene terpene mix, which is combined with MCT oil. It’s available in 30-capsule bottles and each capsule contains 5-8 mg of THC with no CBD.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-27T15:10:19-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pink-kush-softgels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-07-29T09:37:10-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,gtin--00628582000975,language--en,plant_type--Indica Dominant,subcategory--Capsules,subsubcategory--Softgels,terpenes--Beta-Caryophyllene,terpenes--Beta-Pinene,terpenes--Limonene,terpenes--Myrcene,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pink Kush Softgels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-29T16:50:15-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Argyle softgels are made with CO2 extract from a greenhouse-grown indica-dominant strain with mild THC potency, and formulated with non-GMO liquid coconut oil, gelatin and glycerine. They are available in 15- and 60-capsule bottles.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-09-13T15:24:43-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>argyle-capsules-10mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-02T10:17:22-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,effect--Happy,effect--Relaxed,effect--Sleepy,effect--Uplifted,gtin--00688083001093,gtin--00688083001109,language--en,plant_type--Indica Dominant,subcategory--Capsules,subsubcategory--Softgels,terpenes--Beta-Caryophyllene,terpenes--Eudesmols,terpenes--Guaiol,terpenes--Myrcene,terpenes--Selinadienes,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Argyle Softgels 10 mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-30T00:33:38-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bakerstreet cannabis softgels are made with CO2 extract from a greenhouse-grown indica-dominant strain with mild THC potency, and are formulated with non-GMO liquid coconut oil, gelatin and glycerine. They are available in 15- and 60-capsule bottles.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-09-13T15:24:57-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bakerstreet-capsules-10mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-02T10:17:55-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,effect--Happy,effect--Relaxed,effect--Sleepy,effect--Uplifted,gtin--00688083001192,gtin--00688083001208,language--en,plant_type--Indica Dominant,subcategory--Capsules,subsubcategory--Softgels,terpenes--Cymene,terpenes--Eudesmols,terpenes--Myrcene,terpenes--Selinadienes,terpenes--Terpinolene,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bakerstreet Softgels 10 mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-28T14:33:35-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-09-13T15:31:09-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>houndstooth-capsules-10mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-02T10:30:31-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,effect--Creative,effect--Energetic,effect--Euphoric,effect--Passionate,effect--Uplifted,gtin--00688083001550,gtin--00688083001567,language--en,plant_type--Sativa Dominant,subcategory--Capsules,subsubcategory--Softgels,terpenes--Alpha-Pinene,terpenes--Alpha-Santalene,terpenes--Beta-Caryophyllene,terpenes--Myrcene,terpenes--Selinadienes,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houndstooth Softgels 10 mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-29T20:34:18-05:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lemon Skunk is a greenhouse-grown hybrid strain with mild THC potency. The plant’s buds are light green with thick orange hairs, and its terpene profile is rich in terpinolene and caryophyllene, which give it a black pepper scent and hints of citrus. Lemon Skunk is available in 10 mg and 2.5 mg softgels, as well as four dried flower weights.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-09-13T15:40:07-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lemon-skunk-capsules-10mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-02T10:53:17-04:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category--Cannabis,cbd_content_max--0.000000,cbd_content_min--0.000000,gtin--00688083000225,gtin--00688083000232,language--en,plant_type--Hybrid,subcategory--Capsules,subsubcategory--Softgels,terpenes--Bergamotene,terpenes--Beta-Caryophyllene,terpenes--Beta-Pinene,terpenes--Cymene,terpenes--Terpinolene,Test-06/07/2018,thc_content_max--0.000000,thc_content_min--0.000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lemon Skunk Softgels 10 mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object],[object Object]</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,7 +1341,1277 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:0"/>
+    <x:row r="1" spans="1:13">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:13">
+      <x:c r="A2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>1314099496780</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="A3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>2109205022540</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="A4" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>2109205088076</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="A5" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>3887430502220</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="A6" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="n">
+        <x:v>1314099332940</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="A7" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
+        <x:v>4004635248460</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="A8" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>4004691019596</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="A9" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="n">
+        <x:v>4004695967564</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="A10" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="n">
+        <x:v>1314099398476</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="A11" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="n">
+        <x:v>2109204957004</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="M11" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="A12" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="n">
+        <x:v>1314099365708</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="M12" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="A13" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="n">
+        <x:v>1314099431244</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="A14" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="n">
+        <x:v>1314099464012</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="M14" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="A15" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="n">
+        <x:v>4123175028556</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="A16" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="n">
+        <x:v>1314092353356</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="A17" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="n">
+        <x:v>1314100545356</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="L17" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="A18" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="n">
+        <x:v>4123175061324</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="K18" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="L18" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="M18" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="A19" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="n">
+        <x:v>1314091796300</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="J19" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="K19" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="L19" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="M19" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="A20" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="n">
+        <x:v>4004591634252</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="K20" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="L20" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="M20" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="A21" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="n">
+        <x:v>2108889663308</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="K21" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="L21" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="M21" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="A22" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="n">
+        <x:v>2108929673036</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="K22" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="L22" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="M22" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="A23" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="n">
+        <x:v>2108930000716</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="K23" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="L23" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="M23" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="A24" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="n">
+        <x:v>2108930033484</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="J24" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="K24" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="L24" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="M24" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="A25" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="n">
+        <x:v>3447036806988</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="J25" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="K25" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="L25" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="M25" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="A26" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="n">
+        <x:v>3610570295116</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="J26" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="K26" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="L26" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="M26" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="A27" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="n">
+        <x:v>3610570327884</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="J27" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="K27" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="L27" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="M27" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:13">
+      <x:c r="A28" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="n">
+        <x:v>1314091894604</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="J28" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="K28" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="L28" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="M28" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:13">
+      <x:c r="A29" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="n">
+        <x:v>1314091992908</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="J29" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="K29" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="L29" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="M29" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:13">
+      <x:c r="A30" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="n">
+        <x:v>1314094909260</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="J30" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="K30" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="L30" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="M30" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:13">
+      <x:c r="A31" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="n">
+        <x:v>1314100578124</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="J31" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="K31" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="L31" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="M31" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
